--- a/results/all_nn.xlsx
+++ b/results/all_nn.xlsx
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,13 +113,6 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,10 +142,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1572,11 +1564,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="666179104"/>
-        <c:axId val="666182864"/>
+        <c:axId val="-2116357952"/>
+        <c:axId val="-2116354192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="666179104"/>
+        <c:axId val="-2116357952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -1690,12 +1682,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666182864"/>
+        <c:crossAx val="-2116354192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="666182864"/>
+        <c:axId val="-2116354192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1809,7 +1801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666179104"/>
+        <c:crossAx val="-2116357952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1938,9 +1930,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>g=0.9,, 𝜀=0.5/e^(0.01*#success)</a:t>
+              <a:t>g=0.99, 𝜀=0.5/e^(0.01*#success), size = 4x4</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2301,154 +2292,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.36</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.34</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.32</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.42</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.24</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.38</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.36</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.34</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.42</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.36</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.42</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.44</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.34</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.26</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.3</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.26</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.3</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.46</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.42</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.34</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.32</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.24</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.42</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.36</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.24</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.26</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.32</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.34</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2776,154 +2767,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.02</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.02</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.02</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.04</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.02</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.02</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.02</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.02</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.06</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3251,154 +3242,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.26</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.26</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="33">
                   <c:v>0.46</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="34">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0.32</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.28</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.28</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.28</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.28</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.28</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.36</c:v>
-                </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.28</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.24</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4510,11 +4501,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="666252320"/>
-        <c:axId val="666256080"/>
+        <c:axId val="-2101053168"/>
+        <c:axId val="-2101049408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="666252320"/>
+        <c:axId val="-2101053168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -4628,12 +4619,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666256080"/>
+        <c:crossAx val="-2101049408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="666256080"/>
+        <c:axId val="-2101049408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4747,7 +4738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666252320"/>
+        <c:crossAx val="-2101053168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4882,6 +4873,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7286,11 +7278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="666315152"/>
-        <c:axId val="666319424"/>
+        <c:axId val="2130305440"/>
+        <c:axId val="2130309712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="666315152"/>
+        <c:axId val="2130305440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -7337,6 +7329,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7403,12 +7396,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666319424"/>
+        <c:crossAx val="2130309712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="666319424"/>
+        <c:axId val="2130309712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -7455,6 +7448,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7521,7 +7515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666315152"/>
+        <c:crossAx val="2130305440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7535,6 +7529,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9759,11 +9754,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="666378240"/>
-        <c:axId val="666382512"/>
+        <c:axId val="2130375024"/>
+        <c:axId val="2130379296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="666378240"/>
+        <c:axId val="2130375024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -9876,12 +9871,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666382512"/>
+        <c:crossAx val="2130379296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="666382512"/>
+        <c:axId val="2130379296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -9994,7 +9989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666378240"/>
+        <c:crossAx val="2130375024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12694,8 +12689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" topLeftCell="J21" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12764,14 +12759,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P2" s="2">
-        <v>0.36</v>
+      <c r="P2">
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="S2">
         <v>0.46</v>
@@ -12806,14 +12801,14 @@
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="P3" s="2">
-        <v>0.36</v>
+      <c r="P3">
+        <v>0.12</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0.36</v>
@@ -12848,14 +12843,14 @@
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="P4" s="2">
-        <v>0.24</v>
+      <c r="P4">
+        <v>0.1</v>
       </c>
       <c r="Q4">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="R4">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0.28000000000000003</v>
@@ -12890,14 +12885,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P5" s="2">
-        <v>0.36</v>
+      <c r="P5">
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0.32</v>
@@ -12935,14 +12930,14 @@
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="2">
-        <v>0.32</v>
+      <c r="P6">
+        <v>0.04</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0.36</v>
@@ -12977,14 +12972,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P7" s="2">
-        <v>0.3</v>
+      <c r="P7">
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="R7">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0.26</v>
@@ -13019,14 +13014,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P8" s="2">
-        <v>0.16</v>
+      <c r="P8">
+        <v>0.04</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0.3</v>
@@ -13061,14 +13056,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P9" s="2">
-        <v>0.2</v>
+      <c r="P9">
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0.36</v>
@@ -13103,14 +13098,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P10" s="2">
-        <v>0.22</v>
+      <c r="P10">
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0.02</v>
       </c>
       <c r="R10">
-        <v>0.46</v>
+        <v>0.02</v>
       </c>
       <c r="S10">
         <v>0.26</v>
@@ -13145,14 +13140,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P11" s="2">
-        <v>0.26</v>
+      <c r="P11">
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="R11">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="S11">
         <v>0.4</v>
@@ -13187,14 +13182,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P12" s="2">
-        <v>0.36</v>
+      <c r="P12">
+        <v>0</v>
       </c>
       <c r="Q12">
+        <v>0.04</v>
+      </c>
+      <c r="R12">
         <v>0.06</v>
-      </c>
-      <c r="R12">
-        <v>0.36</v>
       </c>
       <c r="S12">
         <v>0.34</v>
@@ -13229,14 +13224,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P13" s="2">
-        <v>0.34</v>
+      <c r="P13">
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0.38</v>
@@ -13271,14 +13266,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P14" s="2">
-        <v>0.3</v>
+      <c r="P14">
+        <v>0.06</v>
       </c>
       <c r="Q14">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="R14">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0.2</v>
@@ -13313,14 +13308,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P15" s="2">
-        <v>0.44</v>
+      <c r="P15">
+        <v>0.04</v>
       </c>
       <c r="Q15">
         <v>0.04</v>
       </c>
       <c r="R15">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="S15">
         <v>0.3</v>
@@ -13355,14 +13350,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P16" s="2">
-        <v>0.36</v>
+      <c r="P16">
+        <v>0.02</v>
       </c>
       <c r="Q16">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="S16">
         <v>0.36</v>
@@ -13397,14 +13392,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P17" s="2">
-        <v>0.24</v>
+      <c r="P17">
+        <v>0.06</v>
       </c>
       <c r="Q17">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="S17">
         <v>0.42</v>
@@ -13439,14 +13434,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="P18" s="2">
-        <v>0.34</v>
+      <c r="P18">
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>0.42</v>
+        <v>0.1</v>
       </c>
       <c r="S18">
         <v>0.3</v>
@@ -13481,14 +13476,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P19" s="2">
-        <v>0.3</v>
+      <c r="P19">
+        <v>0.04</v>
       </c>
       <c r="Q19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="S19">
         <v>0.38</v>
@@ -13523,14 +13518,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P20" s="2">
-        <v>0.32</v>
+      <c r="P20">
+        <v>0.02</v>
       </c>
       <c r="Q20">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="R20">
-        <v>0.44</v>
+        <v>0.1</v>
       </c>
       <c r="S20">
         <v>0.2</v>
@@ -13565,14 +13560,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="P21" s="2">
-        <v>0.42</v>
+      <c r="P21">
+        <v>0.12</v>
       </c>
       <c r="Q21">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0.32</v>
@@ -13607,14 +13602,14 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P22" s="2">
-        <v>0.24</v>
+      <c r="P22">
+        <v>0.06</v>
       </c>
       <c r="Q22">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="R22">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="S22">
         <v>0.28000000000000003</v>
@@ -13649,14 +13644,14 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P23" s="2">
-        <v>0.38</v>
+      <c r="P23">
+        <v>0.12</v>
       </c>
       <c r="Q23">
         <v>0.06</v>
       </c>
       <c r="R23">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="S23">
         <v>0.3</v>
@@ -13691,14 +13686,14 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="P24" s="2">
-        <v>0.36</v>
+      <c r="P24">
+        <v>0.04</v>
       </c>
       <c r="Q24">
+        <v>0.08</v>
+      </c>
+      <c r="R24">
         <v>0.02</v>
-      </c>
-      <c r="R24">
-        <v>0.38</v>
       </c>
       <c r="S24">
         <v>0.34</v>
@@ -13733,14 +13728,14 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="P25" s="2">
-        <v>0.34</v>
+      <c r="P25">
+        <v>0.04</v>
       </c>
       <c r="Q25">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>0.38</v>
@@ -13775,14 +13770,14 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="P26" s="2">
-        <v>0.42</v>
+      <c r="P26">
+        <v>0.04</v>
       </c>
       <c r="Q26">
         <v>0.02</v>
       </c>
       <c r="R26">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="S26">
         <v>0.3</v>
@@ -13817,14 +13812,14 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P27" s="2">
-        <v>0.36</v>
+      <c r="P27">
+        <v>0.08</v>
       </c>
       <c r="Q27">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="S27">
         <v>0.3</v>
@@ -13859,14 +13854,14 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="P28" s="2">
-        <v>0.3</v>
+      <c r="P28">
+        <v>0.02</v>
       </c>
       <c r="Q28">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="R28">
-        <v>0.28000000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="S28">
         <v>0.3</v>
@@ -13901,14 +13896,14 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="P29" s="2">
-        <v>0.4</v>
+      <c r="P29">
+        <v>0.04</v>
       </c>
       <c r="Q29">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="R29">
-        <v>0.42</v>
+        <v>0.18</v>
       </c>
       <c r="S29">
         <v>0.5</v>
@@ -13943,14 +13938,14 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="P30" s="2">
-        <v>0.42</v>
+      <c r="P30">
+        <v>0.02</v>
       </c>
       <c r="Q30">
+        <v>0.02</v>
+      </c>
+      <c r="R30">
         <v>0.04</v>
-      </c>
-      <c r="R30">
-        <v>0.32</v>
       </c>
       <c r="S30">
         <v>0.2</v>
@@ -13985,14 +13980,14 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="P31" s="2">
-        <v>0.3</v>
+      <c r="P31">
+        <v>0.06</v>
       </c>
       <c r="Q31">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="R31">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S31">
         <v>0.16</v>
@@ -14027,14 +14022,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P32" s="2">
-        <v>0.44</v>
+      <c r="P32">
+        <v>0.02</v>
       </c>
       <c r="Q32">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="R32">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="S32">
         <v>0.18</v>
@@ -14069,14 +14064,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="P33" s="2">
-        <v>0.34</v>
+      <c r="P33">
+        <v>0.06</v>
       </c>
       <c r="Q33">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="R33">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <v>0.34</v>
@@ -14111,14 +14106,14 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34">
+        <v>0.06</v>
+      </c>
+      <c r="Q34">
+        <v>0.04</v>
+      </c>
+      <c r="R34">
         <v>0.26</v>
-      </c>
-      <c r="Q34">
-        <v>0.02</v>
-      </c>
-      <c r="R34">
-        <v>0.34</v>
       </c>
       <c r="S34">
         <v>0.34</v>
@@ -14153,14 +14148,14 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="P35" s="2">
-        <v>0.3</v>
+      <c r="P35">
+        <v>0.04</v>
       </c>
       <c r="Q35">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="R35">
-        <v>0.3</v>
+        <v>0.46</v>
       </c>
       <c r="S35">
         <v>0.26</v>
@@ -14195,14 +14190,14 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="P36" s="2">
-        <v>0.26</v>
+      <c r="P36">
+        <v>0.02</v>
       </c>
       <c r="Q36">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="R36">
-        <v>0.4</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S36">
         <v>0.44</v>
@@ -14237,14 +14232,14 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P37" s="2">
-        <v>0.3</v>
+      <c r="P37">
+        <v>0.12</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R37">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="S37">
         <v>0.34</v>
@@ -14279,14 +14274,14 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P38" s="2">
-        <v>0.46</v>
+      <c r="P38">
+        <v>0.02</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="R38">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="S38">
         <v>0.36</v>
@@ -14321,14 +14316,14 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="P39" s="2">
-        <v>0.42</v>
+      <c r="P39">
+        <v>0.04</v>
       </c>
       <c r="Q39">
         <v>0.04</v>
       </c>
       <c r="R39">
-        <v>0.24</v>
+        <v>0.52</v>
       </c>
       <c r="S39">
         <v>0.32</v>
@@ -14363,14 +14358,14 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="P40" s="2">
-        <v>0.34</v>
+      <c r="P40">
+        <v>0.02</v>
       </c>
       <c r="Q40">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="R40">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="S40">
         <v>0.5</v>
@@ -14405,14 +14400,14 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="P41" s="2">
-        <v>0.32</v>
+      <c r="P41">
+        <v>0.06</v>
       </c>
       <c r="Q41">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="R41">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S41">
         <v>0.3</v>
@@ -14447,14 +14442,14 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="P42" s="2">
-        <v>0.24</v>
+      <c r="P42">
+        <v>0.02</v>
       </c>
       <c r="Q42">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="R42">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S42">
         <v>0.38</v>
@@ -14489,14 +14484,14 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P43" s="2">
-        <v>0.42</v>
+      <c r="P43">
+        <v>0.06</v>
       </c>
       <c r="Q43">
         <v>0.02</v>
       </c>
       <c r="R43">
-        <v>0.46</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S43">
         <v>0.36</v>
@@ -14531,14 +14526,14 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P44" s="2">
-        <v>0.36</v>
+      <c r="P44">
+        <v>0.06</v>
       </c>
       <c r="Q44">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="R44">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="S44">
         <v>0.32</v>
@@ -14573,14 +14568,14 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="P45" s="2">
-        <v>0.3</v>
+      <c r="P45">
+        <v>0.06</v>
       </c>
       <c r="Q45">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="R45">
-        <v>0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="S45">
         <v>0.34</v>
@@ -14615,14 +14610,14 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="P46" s="2">
-        <v>0.24</v>
+      <c r="P46">
+        <v>0.08</v>
       </c>
       <c r="Q46">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="R46">
-        <v>0.36</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S46">
         <v>0.22</v>
@@ -14657,14 +14652,14 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P47" s="2">
-        <v>0.26</v>
+      <c r="P47">
+        <v>0.06</v>
       </c>
       <c r="Q47">
         <v>0.02</v>
       </c>
       <c r="R47">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
       <c r="S47">
         <v>0.38</v>
@@ -14699,14 +14694,14 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="P48" s="2">
-        <v>0.32</v>
+      <c r="P48">
+        <v>0.06</v>
       </c>
       <c r="Q48">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="S48">
         <v>0.28000000000000003</v>
@@ -14741,14 +14736,14 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="P49" s="2">
-        <v>0.3</v>
+      <c r="P49">
+        <v>0.06</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R49">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="S49">
         <v>0.18</v>
@@ -14783,14 +14778,14 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="P50" s="2">
-        <v>0.4</v>
+      <c r="P50">
+        <v>0.04</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="R50">
-        <v>0.28000000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="S50">
         <v>0.32</v>
@@ -14825,14 +14820,14 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="P51" s="2">
-        <v>0.34</v>
+      <c r="P51">
+        <v>0.02</v>
       </c>
       <c r="Q51">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="R51">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="S51">
         <v>0.36</v>

--- a/results/all_nn.xlsx
+++ b/results/all_nn.xlsx
@@ -2770,20 +2770,20 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -2791,25 +2791,25 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.0</c:v>
@@ -2827,13 +2827,13 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.0</c:v>
@@ -2845,76 +2845,76 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.04</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.06</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.08</c:v>
-                </c:pt>
                 <c:pt idx="31">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.08</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.1</c:v>
-                </c:pt>
                 <c:pt idx="43">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.08</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.02</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.02</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.08</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.12</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12689,8 +12689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J21" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R51"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12805,7 +12805,7 @@
         <v>0.12</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -12847,7 +12847,7 @@
         <v>0.1</v>
       </c>
       <c r="Q4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -12934,7 +12934,7 @@
         <v>0.04</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -12976,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -13102,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="R10">
         <v>0.02</v>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="R11">
         <v>0.2</v>
@@ -13186,7 +13186,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="R12">
         <v>0.06</v>
@@ -13270,7 +13270,7 @@
         <v>0.06</v>
       </c>
       <c r="Q14">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -13312,7 +13312,7 @@
         <v>0.04</v>
       </c>
       <c r="Q15">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>0.24</v>
@@ -13354,7 +13354,7 @@
         <v>0.02</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="R16">
         <v>0.06</v>
@@ -13606,7 +13606,7 @@
         <v>0.06</v>
       </c>
       <c r="Q22">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="R22">
         <v>0.18</v>
@@ -13648,7 +13648,7 @@
         <v>0.12</v>
       </c>
       <c r="Q23">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>0.02</v>
@@ -13690,7 +13690,7 @@
         <v>0.04</v>
       </c>
       <c r="Q24">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="R24">
         <v>0.02</v>
@@ -13858,7 +13858,7 @@
         <v>0.02</v>
       </c>
       <c r="Q28">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="R28">
         <v>0.46</v>
@@ -13900,7 +13900,7 @@
         <v>0.04</v>
       </c>
       <c r="Q29">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="R29">
         <v>0.18</v>
@@ -13984,7 +13984,7 @@
         <v>0.06</v>
       </c>
       <c r="Q31">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>0.1</v>
@@ -14026,7 +14026,7 @@
         <v>0.02</v>
       </c>
       <c r="Q32">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="R32">
         <v>0.26</v>
@@ -14068,7 +14068,7 @@
         <v>0.06</v>
       </c>
       <c r="Q33">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0.06</v>
       </c>
       <c r="Q34">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>0.26</v>
@@ -14152,7 +14152,7 @@
         <v>0.04</v>
       </c>
       <c r="Q35">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="R35">
         <v>0.46</v>
@@ -14194,7 +14194,7 @@
         <v>0.02</v>
       </c>
       <c r="Q36">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="R36">
         <v>0.14000000000000001</v>
@@ -14236,7 +14236,7 @@
         <v>0.12</v>
       </c>
       <c r="Q37">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -14278,7 +14278,7 @@
         <v>0.02</v>
       </c>
       <c r="Q38">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>0.18</v>
@@ -14320,7 +14320,7 @@
         <v>0.04</v>
       </c>
       <c r="Q39">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="R39">
         <v>0.52</v>
@@ -14404,7 +14404,7 @@
         <v>0.06</v>
       </c>
       <c r="Q41">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="R41">
         <v>0.14000000000000001</v>
@@ -14488,7 +14488,7 @@
         <v>0.06</v>
       </c>
       <c r="Q43">
-        <v>0.02</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R43">
         <v>0.28000000000000003</v>
@@ -14530,7 +14530,7 @@
         <v>0.06</v>
       </c>
       <c r="Q44">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="R44">
         <v>0.06</v>
@@ -14572,7 +14572,7 @@
         <v>0.06</v>
       </c>
       <c r="Q45">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="R45">
         <v>0.22</v>
@@ -14614,7 +14614,7 @@
         <v>0.08</v>
       </c>
       <c r="Q46">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="R46">
         <v>0.57999999999999996</v>
@@ -14656,7 +14656,7 @@
         <v>0.06</v>
       </c>
       <c r="Q47">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>0.22</v>
@@ -14740,7 +14740,7 @@
         <v>0.06</v>
       </c>
       <c r="Q49">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R49">
         <v>0.32</v>
@@ -14782,7 +14782,7 @@
         <v>0.04</v>
       </c>
       <c r="Q50">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="R50">
         <v>0.16</v>
@@ -14824,7 +14824,7 @@
         <v>0.02</v>
       </c>
       <c r="Q51">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>0.48</v>

--- a/results/all_nn.xlsx
+++ b/results/all_nn.xlsx
@@ -27,21 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>step</t>
-  </si>
-  <si>
-    <t>g=0.6</t>
-  </si>
-  <si>
-    <t>g=0.4</t>
-  </si>
-  <si>
-    <t>g=0.2</t>
-  </si>
-  <si>
-    <t>g=0.9</t>
   </si>
   <si>
     <t>a=0.01</t>
@@ -197,23 +185,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Mean</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Mean Reward of NN Agent</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Reward of NN Agent</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>a=0.01, 𝜀=0.5/e^(0.01*#success)</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>g=0.99, size = 4x4, 3 layers, 64 nodes, no ERB</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -257,7 +247,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>g=0.6</c:v>
+            <c:v>a=0.01</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="31750" cap="rnd">
@@ -582,7 +572,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>g=0.4</c:v>
+            <c:v>a=0.1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -907,7 +897,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>g=0.2</c:v>
+            <c:v>a=0.4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1232,7 +1222,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>g=0.9</c:v>
+            <c:v>a=0.6</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1564,11 +1554,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116357952"/>
-        <c:axId val="-2116354192"/>
+        <c:axId val="-1857214064"/>
+        <c:axId val="-1839011424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116357952"/>
+        <c:axId val="-1857214064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -1682,12 +1672,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116354192"/>
+        <c:crossAx val="-1839011424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2116354192"/>
+        <c:axId val="-1839011424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1801,7 +1791,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116357952"/>
+        <c:crossAx val="-1857214064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1930,7 +1920,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>g=0.99, 𝜀=0.5/e^(0.01*#success), size = 4x4</a:t>
+              <a:t>g=0.99, size = 4x4, 3 layers, 64 nodes, ERB size = 10,000</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2295,49 +2285,49 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.02</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.06</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.0</c:v>
@@ -2349,97 +2339,97 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.06</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.12</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.04</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.04</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.08</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.02</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.12</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.06</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.08</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.06</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.06</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.04</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.02</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2770,40 +2760,40 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.0</c:v>
@@ -2812,7 +2802,7 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.0</c:v>
@@ -2821,37 +2811,37 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.08</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.02</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.0</c:v>
@@ -2860,10 +2850,10 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.06</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.06</c:v>
@@ -2872,49 +2862,49 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.04</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3242,154 +3232,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1</c:v>
-                </c:pt>
                 <c:pt idx="19">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.18</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.3</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.46</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.18</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.26</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.46</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.14</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.18</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.52</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.14</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.28</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.06</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.22</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.58</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.22</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.32</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.16</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.48</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3717,154 +3707,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.46</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.42</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.38</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.32</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.28</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.34</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.38</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.16</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.18</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.34</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.34</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.26</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.44</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.34</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.36</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.32</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.38</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.36</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.32</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.34</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.22</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.38</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.28</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.18</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.32</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.36</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4177,6 +4167,306 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4488,6 +4778,306 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4501,11 +5091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2101053168"/>
-        <c:axId val="-2101049408"/>
+        <c:axId val="-1838948416"/>
+        <c:axId val="-1838944656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2101053168"/>
+        <c:axId val="-1838948416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -4619,12 +5209,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101049408"/>
+        <c:crossAx val="-1838944656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2101049408"/>
+        <c:axId val="-1838944656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4738,7 +5328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101053168"/>
+        <c:crossAx val="-1838948416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7278,11 +7868,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130305440"/>
-        <c:axId val="2130309712"/>
+        <c:axId val="-1904736080"/>
+        <c:axId val="-1904732912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130305440"/>
+        <c:axId val="-1904736080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -7396,12 +7986,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130309712"/>
+        <c:crossAx val="-1904732912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130309712"/>
+        <c:axId val="-1904732912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -7515,7 +8105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130305440"/>
+        <c:crossAx val="-1904736080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9754,11 +10344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130375024"/>
-        <c:axId val="2130379296"/>
+        <c:axId val="-1904667600"/>
+        <c:axId val="-1904663328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130375024"/>
+        <c:axId val="-1904667600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -9871,12 +10461,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130379296"/>
+        <c:crossAx val="-1904663328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130379296"/>
+        <c:axId val="-1904663328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -9989,7 +10579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130375024"/>
+        <c:crossAx val="-1904667600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12687,10 +13277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX88"/>
+  <dimension ref="A1:AX101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12712,46 +13302,46 @@
         <v>4</v>
       </c>
       <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AF1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AG1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" t="s">
         <v>8</v>
       </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="AI1" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AV1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW1" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AX1" t="s">
         <v>14</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
@@ -12766,10 +13356,16 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="S2">
-        <v>0.46</v>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -12802,16 +13398,22 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="Q3">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.36</v>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -12844,7 +13446,7 @@
         <v>2</v>
       </c>
       <c r="P4">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -12853,7 +13455,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.28000000000000003</v>
+        <v>0.04</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -12886,16 +13494,22 @@
         <v>3</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.32</v>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.02</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -12928,19 +13542,25 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P6">
+        <v>0.02</v>
+      </c>
+      <c r="Q6">
         <v>0.04</v>
       </c>
-      <c r="Q6">
-        <v>0.06</v>
-      </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="S6">
-        <v>0.36</v>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -12976,13 +13596,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.02</v>
+      </c>
+      <c r="S7">
         <v>0.04</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0.26</v>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0.06</v>
@@ -13015,16 +13641,22 @@
         <v>6</v>
       </c>
       <c r="P8">
+        <v>0.12</v>
+      </c>
+      <c r="Q8">
+        <v>0.02</v>
+      </c>
+      <c r="R8">
+        <v>0.02</v>
+      </c>
+      <c r="S8">
         <v>0.04</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0.3</v>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -13066,7 +13698,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.36</v>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -13099,16 +13737,22 @@
         <v>8</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Q10">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.26</v>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0.1</v>
@@ -13144,13 +13788,19 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="R11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0.32</v>
@@ -13183,16 +13833,22 @@
         <v>10</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q12">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>0.34</v>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -13228,13 +13884,19 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S13">
-        <v>0.38</v>
+        <v>0.06</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0.32</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -13267,16 +13929,22 @@
         <v>12</v>
       </c>
       <c r="P14">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="Q14">
+        <v>0.02</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>0.08</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0.2</v>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0.26</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -13315,10 +13983,16 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0.42</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -13351,16 +14025,22 @@
         <v>14</v>
       </c>
       <c r="P16">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0.06</v>
       </c>
       <c r="R16">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>0.36</v>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0.22</v>
+      </c>
+      <c r="U16">
+        <v>0.34</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -13393,16 +14073,22 @@
         <v>15</v>
       </c>
       <c r="P17">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="R17">
-        <v>0.52</v>
+        <v>0.1</v>
       </c>
       <c r="S17">
-        <v>0.42</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0.4</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -13441,10 +14127,16 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0.38</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -13483,10 +14175,16 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>0.38</v>
+        <v>0.06</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0.32</v>
       </c>
       <c r="AF19">
         <v>0.14000000000000001</v>
@@ -13522,13 +14220,19 @@
         <v>0.02</v>
       </c>
       <c r="Q20">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="S20">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0.34</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -13561,16 +14265,22 @@
         <v>19</v>
       </c>
       <c r="P21">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0.32</v>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0.28000000000000003</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -13603,16 +14313,22 @@
         <v>20</v>
       </c>
       <c r="P22">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="Q22">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="R22">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="S22">
-        <v>0.28000000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -13645,7 +14361,7 @@
         <v>21</v>
       </c>
       <c r="P23">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -13654,7 +14370,13 @@
         <v>0.02</v>
       </c>
       <c r="S23">
-        <v>0.3</v>
+        <v>0.04</v>
+      </c>
+      <c r="T23">
+        <v>0.52</v>
+      </c>
+      <c r="U23">
+        <v>0.22</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -13687,15 +14409,21 @@
         <v>22</v>
       </c>
       <c r="P24">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="R24">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S24">
+        <v>0.06</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>0.34</v>
       </c>
       <c r="AF24">
@@ -13729,7 +14457,7 @@
         <v>23</v>
       </c>
       <c r="P25">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -13738,7 +14466,13 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0.38</v>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -13774,13 +14508,19 @@
         <v>0.04</v>
       </c>
       <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <v>0.02</v>
       </c>
-      <c r="R26">
-        <v>0.3</v>
-      </c>
       <c r="S26">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -13813,16 +14553,22 @@
         <v>25</v>
       </c>
       <c r="P27">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="S27">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -13858,13 +14604,19 @@
         <v>0.02</v>
       </c>
       <c r="Q28">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="R28">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0.34</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0.22</v>
@@ -13897,16 +14649,22 @@
         <v>27</v>
       </c>
       <c r="P29">
+        <v>0.1</v>
+      </c>
+      <c r="Q29">
+        <v>0.06</v>
+      </c>
+      <c r="R29">
+        <v>0.06</v>
+      </c>
+      <c r="S29">
         <v>0.04</v>
       </c>
-      <c r="Q29">
-        <v>0.08</v>
-      </c>
-      <c r="R29">
-        <v>0.18</v>
-      </c>
-      <c r="S29">
-        <v>0.5</v>
+      <c r="T29">
+        <v>0.4</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -13939,16 +14697,22 @@
         <v>28</v>
       </c>
       <c r="P30">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0.3</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -13981,16 +14745,22 @@
         <v>29</v>
       </c>
       <c r="P31">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>0.16</v>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -14023,16 +14793,22 @@
         <v>30</v>
       </c>
       <c r="P32">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0.02</v>
       </c>
       <c r="R32">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="S32">
-        <v>0.18</v>
+        <v>0.04</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -14065,16 +14841,22 @@
         <v>31</v>
       </c>
       <c r="P33">
+        <v>0.04</v>
+      </c>
+      <c r="Q33">
+        <v>0.08</v>
+      </c>
+      <c r="R33">
         <v>0.06</v>
       </c>
-      <c r="Q33">
-        <v>0.06</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
       <c r="S33">
-        <v>0.34</v>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -14107,16 +14889,22 @@
         <v>32</v>
       </c>
       <c r="P34">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="R34">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="S34">
-        <v>0.34</v>
+        <v>0.04</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -14149,16 +14937,22 @@
         <v>33</v>
       </c>
       <c r="P35">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Q35">
         <v>0.06</v>
       </c>
       <c r="R35">
-        <v>0.46</v>
+        <v>0.02</v>
       </c>
       <c r="S35">
-        <v>0.26</v>
+        <v>0.06</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0.44</v>
       </c>
       <c r="AF35">
         <v>0.38</v>
@@ -14191,15 +14985,21 @@
         <v>34</v>
       </c>
       <c r="P36">
+        <v>0.04</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
         <v>0.02</v>
       </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0.14000000000000001</v>
-      </c>
       <c r="S36">
+        <v>0.08</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
         <v>0.44</v>
       </c>
       <c r="AF36">
@@ -14233,16 +15033,22 @@
         <v>35</v>
       </c>
       <c r="P37">
+        <v>0.04</v>
+      </c>
+      <c r="Q37">
         <v>0.12</v>
       </c>
-      <c r="Q37">
-        <v>0.04</v>
-      </c>
       <c r="R37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S37">
-        <v>0.34</v>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0.4</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -14281,10 +15087,16 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>0.36</v>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -14317,16 +15129,22 @@
         <v>37</v>
       </c>
       <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0.06</v>
+      </c>
+      <c r="R39">
+        <v>0.02</v>
+      </c>
+      <c r="S39">
         <v>0.04</v>
       </c>
-      <c r="Q39">
-        <v>0.02</v>
-      </c>
-      <c r="R39">
-        <v>0.52</v>
-      </c>
-      <c r="S39">
-        <v>0.32</v>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -14359,16 +15177,22 @@
         <v>38</v>
       </c>
       <c r="P40">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="Q40">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="R40">
         <v>0.06</v>
       </c>
       <c r="S40">
-        <v>0.5</v>
+        <v>0.02</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0.12</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -14401,16 +15225,22 @@
         <v>39</v>
       </c>
       <c r="P41">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="R41">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0.28000000000000003</v>
       </c>
       <c r="AF41">
         <v>0.46</v>
@@ -14443,16 +15273,22 @@
         <v>40</v>
       </c>
       <c r="P42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="Q42">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="R42">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>0.38</v>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0.24</v>
+      </c>
+      <c r="U42">
+        <v>0.4</v>
       </c>
       <c r="AF42">
         <v>0.02</v>
@@ -14485,16 +15321,22 @@
         <v>41</v>
       </c>
       <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0.02</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
         <v>0.06</v>
       </c>
-      <c r="Q43">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R43">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="S43">
-        <v>0.36</v>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0.22</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -14527,16 +15369,22 @@
         <v>42</v>
       </c>
       <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>0.06</v>
       </c>
-      <c r="Q44">
-        <v>0.02</v>
-      </c>
       <c r="R44">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="S44">
-        <v>0.32</v>
+        <v>0.04</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0.38</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -14569,16 +15417,22 @@
         <v>43</v>
       </c>
       <c r="P45">
+        <v>0.04</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0.02</v>
+      </c>
+      <c r="S45">
         <v>0.06</v>
       </c>
-      <c r="Q45">
-        <v>0.02</v>
-      </c>
-      <c r="R45">
-        <v>0.22</v>
-      </c>
-      <c r="S45">
-        <v>0.34</v>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0.42</v>
@@ -14611,16 +15465,22 @@
         <v>44</v>
       </c>
       <c r="P46">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="Q46">
+        <v>0.02</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
         <v>0.04</v>
       </c>
-      <c r="R46">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="S46">
-        <v>0.22</v>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -14653,16 +15513,22 @@
         <v>45</v>
       </c>
       <c r="P47">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="R47">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>0.38</v>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0.34</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -14695,16 +15561,22 @@
         <v>46</v>
       </c>
       <c r="P48">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="S48">
-        <v>0.28000000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -14743,10 +15615,16 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>0.18</v>
+        <v>0.02</v>
+      </c>
+      <c r="T49">
+        <v>0.3</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -14779,16 +15657,22 @@
         <v>48</v>
       </c>
       <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0.02</v>
+      </c>
+      <c r="R50">
+        <v>0.08</v>
+      </c>
+      <c r="S50">
         <v>0.04</v>
       </c>
-      <c r="Q50">
-        <v>0.04</v>
-      </c>
-      <c r="R50">
-        <v>0.16</v>
-      </c>
-      <c r="S50">
-        <v>0.32</v>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0.14000000000000001</v>
@@ -14821,16 +15705,22 @@
         <v>49</v>
       </c>
       <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
         <v>0.02</v>
       </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0.48</v>
-      </c>
-      <c r="S51">
-        <v>0.36</v>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0.04</v>
@@ -14862,221 +15752,547 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
+      <c r="T52">
+        <v>0.4</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
+      <c r="T53">
+        <v>0.3</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
+      <c r="T54">
+        <v>0.32</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
+      <c r="T55">
+        <v>0.4</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
+      <c r="T58">
+        <v>0.26</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
+      <c r="T65">
+        <v>0.44</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" ref="A68:A88" si="1">A67+1</f>
         <v>66</v>
       </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
+      <c r="T72">
+        <v>0.34</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
+      <c r="T78">
+        <v>0.4</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
+      <c r="T79">
+        <v>0.26</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
+      <c r="T80">
+        <v>0.36</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
+      <c r="T84">
+        <v>0.26</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>86</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T91">
+        <v>0.34</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="20:21" x14ac:dyDescent="0.2">
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="20:21" x14ac:dyDescent="0.2">
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="20:21" x14ac:dyDescent="0.2">
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="20:21" x14ac:dyDescent="0.2">
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="20:21" x14ac:dyDescent="0.2">
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
